--- a/yjc/家居.xlsx
+++ b/yjc/家居.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\yjc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D9E773-DBF2-4331-866D-DD03C483AE1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE179FA-C4EA-431A-8E55-5A0E7EE1D973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="船期表" sheetId="7" r:id="rId1"/>
@@ -25,9 +25,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="96" r:id="rId7"/>
+    <pivotCache cacheId="9" r:id="rId7"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="473">
   <si>
     <t>ETD</t>
   </si>
@@ -77,9 +76,6 @@
     <t>YJCSHAN1915429</t>
   </si>
   <si>
-    <t>YJCSHAN1915771</t>
-  </si>
-  <si>
     <t>YJCSHAN1915772</t>
   </si>
   <si>
@@ -197,22 +193,7 @@
     <t>YJCSHAN1915776</t>
   </si>
   <si>
-    <t>YJCSHAN1915773</t>
-  </si>
-  <si>
-    <t>YJCSHAN1915774</t>
-  </si>
-  <si>
-    <t>YJCSHAN1915775</t>
-  </si>
-  <si>
     <t>PCLU1940HN4302</t>
-  </si>
-  <si>
-    <t>PCLU1794PE4402</t>
-  </si>
-  <si>
-    <t>PCLU1794PE4404</t>
   </si>
   <si>
     <t>PCLU1795PE4400</t>
@@ -824,16 +805,6 @@
     <t>UE</t>
   </si>
   <si>
-    <t>PO1908020018
-PO1908020028</t>
-  </si>
-  <si>
-    <t>PO1908140032
-PO1908140033
-PO1908140034
-PO1908140035</t>
-  </si>
-  <si>
     <t>2285</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -845,10 +816,6 @@
   </si>
   <si>
     <t>HSO 1811-25E-149</t>
-  </si>
-  <si>
-    <t>PO1908020006
-PO1908020012</t>
   </si>
   <si>
     <t>HSO 1811-25E-150</t>
@@ -939,12 +906,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PO1909100009
-PO1908020019
-PO1908020029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MBL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -967,9 +928,6 @@
     <t>PCLU1939HN4308</t>
   </si>
   <si>
-    <t>PCLU1940HN4300</t>
-  </si>
-  <si>
     <t>PCLU1940HN4304</t>
   </si>
   <si>
@@ -1014,23 +972,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>列1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHATTANOOGA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PEGASUS TERA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1139,55 +1081,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HTL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOUISUN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZHOUJI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YAJIAJU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHILOSOPHY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CABO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUADA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KUKA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WANSHENG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANSSEM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANJI FUHE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUABAO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1334,10 +1228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1拼2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1385,10 +1275,6 @@
   </si>
   <si>
     <t>GLV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KUKA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1535,10 +1421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PCLU1941HN4312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>219JJ52-10000-13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1547,10 +1429,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>219JJ52-10000-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PCLU1942HN4302</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1635,12 +1513,6 @@
     <t>YJCSHAN1916058</t>
   </si>
   <si>
-    <t>YJCSHAN1916226</t>
-  </si>
-  <si>
-    <t>YJCSHAN1916227</t>
-  </si>
-  <si>
     <t>YJCSHAN1916059</t>
   </si>
   <si>
@@ -1681,10 +1553,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼4401 4402</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1750,10 +1618,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>原4，套用1个到1009 1795PE4400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PCLU1795PE4308</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1774,6 +1638,170 @@
   </si>
   <si>
     <t>华达利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO1909100009
+PO1908020012
+PO1908020019
+PO1908020029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO1908020006
+PO1908140034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO1908140032
+PO1908140033
+PO1908140035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先提供copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1915773</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1915774</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1794PE4404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>219JJ52-10000-12-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4310 4312</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原4，套用1个到1009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1797PE4400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1916372</t>
+  </si>
+  <si>
+    <t>200(电放)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHL2332</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHL2333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洲际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1796PE4402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1942HN4406</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1916390</t>
+  </si>
+  <si>
+    <t>YJCSHAN1916391</t>
+  </si>
+  <si>
+    <t>YJCSHAN1915771</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1940HN4300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1916226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1916227</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1940HN4312</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008签正本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王燕华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1916398/4401 1916400/4402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅佳居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO1908020018
+PO1908020028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCLU1794PE4402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJCSHAN1915775</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1991,7 +2019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2080,6 +2108,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="3" xr:uid="{11464406-CB42-4231-9033-59DF1DE107D9}"/>
@@ -2087,77 +2119,7 @@
     <cellStyle name="표준 2" xfId="1" xr:uid="{08E4E7BD-B9F9-42CD-AE60-3D130BABA0F0}"/>
     <cellStyle name="표준 8" xfId="2" xr:uid="{AFC6B669-AECF-4343-B3D5-6010716D6012}"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="94">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2762,48 +2724,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="177" formatCode="mm/dd\ aaa"/>
     </dxf>
     <dxf>
@@ -3295,6 +3215,20 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3551,23 +3485,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -3604,14 +3522,8 @@
             </a:rPr>
             <a:t> HBL DRAFT</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3651,6 +3563,50 @@
             </a:rPr>
             <a:t> MBL DRAFT</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>◆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> DEBIT NOTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4024,7 +3980,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yjc" refreshedDate="43737.899812152777" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{FD88DD72-01B5-423A-9DFA-2D2210298B54}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yjc" refreshedDate="43741.626381018519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="62" xr:uid="{FD88DD72-01B5-423A-9DFA-2D2210298B54}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table135"/>
   </cacheSource>
@@ -4426,7 +4382,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="显示名称" numFmtId="0">
-      <sharedItems count="28">
+      <sharedItems count="29">
         <s v="永艺 - SSEM"/>
         <s v="顾家 - HANSSEM"/>
         <s v="华宝 - SSEM"/>
@@ -4441,6 +4397,7 @@
         <s v="CASAMIA - 瑞显" u="1"/>
         <s v="HANSSEM - 顾家" u="1"/>
         <s v="CASAMIA - 华达利" u="1"/>
+        <s v="ZHOUJI" u="1"/>
         <s v="韩森 - HANSSEM" u="1"/>
         <s v="CASAMIA - 雅家居" u="1"/>
         <s v="CASAMIA - 顾家" u="1"/>
@@ -4515,7 +4472,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="62">
   <r>
     <x v="0"/>
     <s v="SSEM"/>
@@ -4942,13 +4899,13 @@
     <s v="华达利"/>
     <x v="6"/>
     <s v="HTL"/>
-    <s v="PO1908140032_x000a_PO1908140033_x000a_PO1908140034_x000a_PO1908140035"/>
+    <s v="PO1908140032_x000a_PO1908140033_x000a_PO1908140035"/>
     <m/>
     <n v="3"/>
     <n v="6"/>
     <s v="YJCSHAN1915774"/>
     <s v="PCLU1794PE4404"/>
-    <s v="原4，套用1个到1009 1795PE4400"/>
+    <s v="原4，套用1个到1009"/>
     <s v="OK"/>
   </r>
   <r>
@@ -5037,7 +4994,7 @@
     <n v="1"/>
     <n v="2"/>
     <s v="YJCSHAN1916227"/>
-    <s v="PCLU1941HN4312"/>
+    <s v="PCLU1940HN4312"/>
     <m/>
     <s v="OK"/>
   </r>
@@ -5092,10 +5049,10 @@
     <s v="华达利"/>
     <x v="6"/>
     <s v="HTL"/>
-    <s v="PO1908020006_x000a_PO1908020012"/>
+    <s v="PO1908020006_x000a_PO1908140034"/>
     <m/>
+    <n v="1"/>
     <n v="2"/>
-    <n v="4"/>
     <s v="YJCSHAN1915775"/>
     <s v="PCLU1795PE4400"/>
     <m/>
@@ -5197,10 +5154,10 @@
     <s v="华达利"/>
     <x v="6"/>
     <s v="HTL"/>
-    <s v="PO1909100009_x000a_PO1908020019_x000a_PO1908020029"/>
+    <s v="PO1909100009_x000a_PO1908020012_x000a_PO1908020019_x000a_PO1908020029"/>
     <m/>
-    <n v="3"/>
-    <n v="6"/>
+    <n v="4"/>
+    <n v="8"/>
     <s v="YJCSHAN1916054"/>
     <s v="PCLU1941HN4400"/>
     <m/>
@@ -5212,13 +5169,13 @@
     <s v="顾家"/>
     <x v="1"/>
     <s v="KUKA"/>
-    <s v="219JJ52-10000-12"/>
+    <s v="219JJ52-10000-12-16"/>
     <m/>
-    <n v="1"/>
     <n v="2"/>
+    <n v="4"/>
     <s v="YJCSHAN1915772"/>
     <s v="PCLU1941HN4308"/>
-    <m/>
+    <s v="4310 4312"/>
     <s v="OK"/>
   </r>
   <r>
@@ -5411,8 +5368,38 @@
     <m/>
     <n v="1"/>
     <n v="2"/>
+    <s v="YJCSHAN1916372"/>
+    <s v="PCLU1797PE4400"/>
+    <m/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CASAMIA"/>
+    <s v="洲际"/>
+    <x v="9"/>
+    <s v="ZHOUJI"/>
+    <s v="AHL2332"/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="YJCSHAN1916390"/>
+    <s v="PCLU1796PE4402"/>
     <m/>
     <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="CASAMIA"/>
+    <s v="洲际"/>
+    <x v="9"/>
+    <s v="ZHOUJI"/>
+    <s v="AHL2333"/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="YJCSHAN1916391"/>
+    <s v="PCLU1942HN4406"/>
     <m/>
     <m/>
   </r>
@@ -5420,8 +5407,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED71FF22-6E7F-452C-9333-B934B1ADBFE2}" name="数据透视表3" cacheId="96" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D61" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED71FF22-6E7F-452C-9333-B934B1ADBFE2}" name="数据透视表3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="176" showAll="0">
       <items count="369">
@@ -5799,35 +5786,36 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="29">
+      <items count="30">
         <item m="1" x="13"/>
         <item m="1" x="11"/>
-        <item m="1" x="15"/>
-        <item m="1" x="19"/>
+        <item m="1" x="16"/>
+        <item m="1" x="20"/>
         <item m="1" x="12"/>
+        <item m="1" x="25"/>
+        <item m="1" x="22"/>
         <item m="1" x="24"/>
-        <item m="1" x="21"/>
         <item m="1" x="23"/>
-        <item m="1" x="22"/>
+        <item m="1" x="28"/>
+        <item m="1" x="18"/>
+        <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="17"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="16"/>
         <item x="5"/>
-        <item m="1" x="20"/>
+        <item m="1" x="21"/>
         <item x="1"/>
         <item x="4"/>
         <item x="9"/>
-        <item m="1" x="14"/>
+        <item m="1" x="15"/>
         <item x="6"/>
         <item x="3"/>
-        <item m="1" x="18"/>
+        <item m="1" x="19"/>
         <item x="2"/>
         <item x="8"/>
         <item x="0"/>
         <item x="7"/>
         <item x="10"/>
+        <item m="1" x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5853,8 +5841,8 @@
         <item h="1" sd="0" x="8"/>
         <item sd="0" x="9"/>
         <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
         <item h="1" sd="0" x="13"/>
         <item t="default"/>
       </items>
@@ -5864,7 +5852,7 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="58">
+  <rowItems count="60">
     <i>
       <x v="258"/>
     </i>
@@ -6010,6 +5998,9 @@
       <x v="17"/>
     </i>
     <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
       <x v="21"/>
     </i>
     <i r="1">
@@ -6020,6 +6011,9 @@
     </i>
     <i r="1">
       <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
     </i>
     <i r="1">
       <x v="20"/>
@@ -6063,16 +6057,16 @@
     <dataField name="TEUU" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="88">
+    <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="70">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="14">
@@ -6094,10 +6088,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6109,7 +6103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6122,7 +6116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6135,7 +6129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6151,7 +6145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6166,7 +6160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6182,7 +6176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6194,7 +6188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6209,7 +6203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6225,7 +6219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6239,7 +6233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6252,7 +6246,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6265,7 +6259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6278,7 +6272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6291,7 +6285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -6302,14 +6296,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="16">
@@ -6347,57 +6341,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F251878-450B-4C6C-9BD9-08C3E722BFDB}" name="表3" displayName="表3" ref="A1:E19" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
-  <autoFilter ref="A1:E19" xr:uid="{820BD5A2-AD66-4D9B-AC3E-64CBF0B4B21A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D075319D-DCE2-4203-B078-3F588EAB591A}" name="ETD" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{C82A9C09-C14B-443E-912A-E603A3D04F39}" name="船名" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{A7532413-2A72-4632-B601-DE7731C72187}" name="航次" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{481AEBDD-33EF-4909-9917-F48E051CEF76}" name="船名航次" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F251878-450B-4C6C-9BD9-08C3E722BFDB}" name="表3" displayName="表3" ref="A1:F19" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="A1:F19" xr:uid="{820BD5A2-AD66-4D9B-AC3E-64CBF0B4B21A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D075319D-DCE2-4203-B078-3F588EAB591A}" name="ETD" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{C82A9C09-C14B-443E-912A-E603A3D04F39}" name="船名" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{A7532413-2A72-4632-B601-DE7731C72187}" name="航次" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{481AEBDD-33EF-4909-9917-F48E051CEF76}" name="船名航次" dataDxfId="88">
       <calculatedColumnFormula>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E6D1B694-EAB3-43C5-AEF8-5854E76AB417}" name="列1" dataDxfId="102">
-      <calculatedColumnFormula>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{E6D1B694-EAB3-43C5-AEF8-5854E76AB417}" name="列1" dataDxfId="87">
+      <calculatedColumnFormula>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{EE973C25-430B-4F5A-8A55-AA901FBD80AB}" name="列2" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{46A5E682-6FCC-4DC5-B412-FBC444028D65}" name="Table135" displayName="Table135" ref="A1:M61" totalsRowShown="0">
-  <autoFilter ref="A1:M61" xr:uid="{27122EDD-454A-4B5B-BA80-E5D57F9762C1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{46A5E682-6FCC-4DC5-B412-FBC444028D65}" name="Table135" displayName="Table135" ref="A1:M63" totalsRowShown="0">
+  <autoFilter ref="A1:M63" xr:uid="{27122EDD-454A-4B5B-BA80-E5D57F9762C1}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" month="9" day="29" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CASAMIA"/>
+        <dateGroupItem year="2019" month="10" day="2" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="5" xr3:uid="{D5A41DDC-7E3C-4252-B958-4FFBB6F0B188}" name="ETD" dataDxfId="100"/>
-    <tableColumn id="1" xr3:uid="{E0A23808-EA69-463C-842B-C0CB379DD66A}" name="CNEE" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{D5A41DDC-7E3C-4252-B958-4FFBB6F0B188}" name="ETD" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{E0A23808-EA69-463C-842B-C0CB379DD66A}" name="CNEE" dataDxfId="83"/>
     <tableColumn id="3" xr3:uid="{8852D5F7-2872-4FFE-AF69-A4095F3F311A}" name="CN"/>
-    <tableColumn id="6" xr3:uid="{9FDEA0A4-FFA6-4738-AFE3-9127A65192BA}" name="显示名称" dataDxfId="98">
+    <tableColumn id="6" xr3:uid="{9FDEA0A4-FFA6-4738-AFE3-9127A65192BA}" name="显示名称" dataDxfId="82">
       <calculatedColumnFormula>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D99B457A-5E43-4826-89CE-4DF7C66631D0}" name="EN" dataDxfId="97">
+    <tableColumn id="2" xr3:uid="{D99B457A-5E43-4826-89CE-4DF7C66631D0}" name="EN" dataDxfId="81">
       <calculatedColumnFormula>VLOOKUP(Table135[[#This Row],[CN]],表5[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3AE3033B-B2DD-4FF9-845B-D12C06A80CBC}" name="PO" dataDxfId="96"/>
-    <tableColumn id="14" xr3:uid="{D9AF6816-6FE9-42B6-90DE-3B1C3A49928E}" name="20'" dataDxfId="95"/>
-    <tableColumn id="15" xr3:uid="{64ABF70C-DC54-4BAF-B684-7A0D11798790}" name="40'" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{BE98B6FD-F003-4FCB-A09B-5B40F0BECB41}" name="TEU" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{3AE3033B-B2DD-4FF9-845B-D12C06A80CBC}" name="PO" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{D9AF6816-6FE9-42B6-90DE-3B1C3A49928E}" name="20'" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{64ABF70C-DC54-4BAF-B684-7A0D11798790}" name="40'" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{BE98B6FD-F003-4FCB-A09B-5B40F0BECB41}" name="TEU" dataDxfId="77">
       <calculatedColumnFormula>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D1DAA04E-3900-49B6-9D5B-7360FA9CB116}" name="HBL" dataDxfId="92"/>
-    <tableColumn id="9" xr3:uid="{A389ED21-5E02-4B63-AFC5-F1294CD613FF}" name="MBL" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{D31A235D-4A91-49D5-8512-BC3C138F03B6}" name="备注" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{7410B7FF-4059-4669-8915-AFABD73C023C}" name="OK" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{D1DAA04E-3900-49B6-9D5B-7360FA9CB116}" name="HBL" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{A389ED21-5E02-4B63-AFC5-F1294CD613FF}" name="MBL" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{D31A235D-4A91-49D5-8512-BC3C138F03B6}" name="备注" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{7410B7FF-4059-4669-8915-AFABD73C023C}" name="OK" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6414,90 +6404,80 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B441CA60-9996-4823-9631-6B79F1CBAF83}" name="表8" displayName="表8" ref="A1:Z34" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
-  <autoFilter ref="A1:Z34" xr:uid="{4848E19E-9770-4EF2-957E-4883102A42C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B441CA60-9996-4823-9631-6B79F1CBAF83}" name="表8" displayName="表8" ref="A1:Z36" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:Z36" xr:uid="{4848E19E-9770-4EF2-957E-4883102A42C0}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" month="9" dateTimeGrouping="month"/>
+        <dateGroupItem year="2019" month="10" day="2" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="A7:Z11">
+    <sortCondition ref="B9"/>
+  </sortState>
   <tableColumns count="26">
-    <tableColumn id="33" xr3:uid="{FFB772AD-7961-4AF0-A343-8EF68408E581}" name="ETD" dataDxfId="54"/>
-    <tableColumn id="1" xr3:uid="{DD461CCA-4517-4E98-906F-3EAB828CBAE8}" name="SHPR" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{610BC8AA-6CF7-4530-BB23-3900696A452B}" name="说明" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{C7FBFEAF-3B24-4430-99EE-472866BBB78F}" name="托书_x000a_是否_x000a_超限" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{FD9BB9C6-4925-4292-B40A-B2442609822A}" name="四步_x000a_订舱" dataDxfId="50"/>
-    <tableColumn id="35" xr3:uid="{1565FDB9-F8CC-4261-88DA-1E0A7AC44F2E}" name="KY_x000a_确认" dataDxfId="49"/>
-    <tableColumn id="40" xr3:uid="{79E22D25-B265-4532-9D0C-7BFB902D8675}" name="振华_x000a_审核" dataDxfId="48"/>
-    <tableColumn id="37" xr3:uid="{97C717B8-DB44-45AF-8B81-151042B1443A}" name="振华_x000a_加拼_x000a_提交" dataDxfId="47"/>
-    <tableColumn id="36" xr3:uid="{8FADEA53-7B52-4F14-83A5-45513FB6EAC2}" name="振华_x000a_拼核" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{5A515F49-F89E-4286-B9BD-B318AD2640C1}" name="录_x000a_费用" dataDxfId="45"/>
-    <tableColumn id="41" xr3:uid="{380DE760-4572-4325-AE84-0D63150ABC01}" name="收_x000a_资料" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{F0049236-1AFC-45B4-9CBB-742944BBE002}" name="YJC_x000a_截单" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{D4C67CBE-6558-404F-A8D0-D234A01EA7BF}" name="发HBL_x000a_和INV" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{4EA6E925-BC45-44FB-88BE-7E356E832C8E}" name="振华_x000a_录入" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{39031770-24D7-4251-83C2-6D9C51435B2F}" name="HBL_x000a_INV_x000a_确认" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{C46F7B56-BA33-46DE-819A-3F42D0C61863}" name="发_x000a_舱单" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{2409B3B5-68AD-4B2C-8998-95F0DE45831C}" name="确认_x000a_舱单" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{E8D84A53-92DE-4877-89A2-36EB1150C2A3}" name="并单" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{BA4F5147-A73A-4C12-9D4C-0455962CF9E2}" name="审核" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{F8063949-AB34-494B-8DFC-100B64C6369C}" name="VGM" dataDxfId="35"/>
-    <tableColumn id="24" xr3:uid="{44CF02AB-D86C-4783-97CD-2E2313B8D659}" name="邮件_x000a_KY" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{C1B5B7BF-1648-4A5C-9FF0-68A5372723DA}" name="统计_x000a_费用" dataDxfId="33"/>
-    <tableColumn id="31" xr3:uid="{2F64CBB1-11D9-441C-B553-FF0F047C7793}" name="APP" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{3D6AC291-A8CB-4072-8908-6B43D3EBF9A9}" name="发票" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{72487BE9-2C92-4AAB-B75E-4F1A59FE63BA}" name="水单" dataDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{99DFA36B-3339-4FCF-B717-02D841DCF024}" name="放单" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{FFB772AD-7961-4AF0-A343-8EF68408E581}" name="ETD" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{DD461CCA-4517-4E98-906F-3EAB828CBAE8}" name="SHPR" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{610BC8AA-6CF7-4530-BB23-3900696A452B}" name="说明" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{C7FBFEAF-3B24-4430-99EE-472866BBB78F}" name="托书_x000a_是否_x000a_超限" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{FD9BB9C6-4925-4292-B40A-B2442609822A}" name="四步_x000a_订舱" dataDxfId="40"/>
+    <tableColumn id="35" xr3:uid="{1565FDB9-F8CC-4261-88DA-1E0A7AC44F2E}" name="KY_x000a_确认" dataDxfId="39"/>
+    <tableColumn id="40" xr3:uid="{79E22D25-B265-4532-9D0C-7BFB902D8675}" name="振华_x000a_审核" dataDxfId="38"/>
+    <tableColumn id="37" xr3:uid="{97C717B8-DB44-45AF-8B81-151042B1443A}" name="振华_x000a_加拼_x000a_提交" dataDxfId="37"/>
+    <tableColumn id="36" xr3:uid="{8FADEA53-7B52-4F14-83A5-45513FB6EAC2}" name="振华_x000a_拼核" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{5A515F49-F89E-4286-B9BD-B318AD2640C1}" name="录_x000a_费用" dataDxfId="35"/>
+    <tableColumn id="41" xr3:uid="{380DE760-4572-4325-AE84-0D63150ABC01}" name="收_x000a_资料" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{F0049236-1AFC-45B4-9CBB-742944BBE002}" name="YJC_x000a_截单" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{D4C67CBE-6558-404F-A8D0-D234A01EA7BF}" name="发HBL_x000a_和INV" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{4EA6E925-BC45-44FB-88BE-7E356E832C8E}" name="振华_x000a_录入" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{39031770-24D7-4251-83C2-6D9C51435B2F}" name="HBL_x000a_INV_x000a_确认" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{C46F7B56-BA33-46DE-819A-3F42D0C61863}" name="发_x000a_舱单" dataDxfId="29"/>
+    <tableColumn id="18" xr3:uid="{2409B3B5-68AD-4B2C-8998-95F0DE45831C}" name="确认_x000a_舱单" dataDxfId="28"/>
+    <tableColumn id="19" xr3:uid="{E8D84A53-92DE-4877-89A2-36EB1150C2A3}" name="并单" dataDxfId="27"/>
+    <tableColumn id="20" xr3:uid="{BA4F5147-A73A-4C12-9D4C-0455962CF9E2}" name="审核" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{F8063949-AB34-494B-8DFC-100B64C6369C}" name="VGM" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{44CF02AB-D86C-4783-97CD-2E2313B8D659}" name="邮件_x000a_KY" dataDxfId="24"/>
+    <tableColumn id="22" xr3:uid="{C1B5B7BF-1648-4A5C-9FF0-68A5372723DA}" name="统计_x000a_费用" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{2F64CBB1-11D9-441C-B553-FF0F047C7793}" name="APP" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{3D6AC291-A8CB-4072-8908-6B43D3EBF9A9}" name="发票" dataDxfId="21"/>
+    <tableColumn id="26" xr3:uid="{72487BE9-2C92-4AAB-B75E-4F1A59FE63BA}" name="水单" dataDxfId="20"/>
+    <tableColumn id="30" xr3:uid="{99DFA36B-3339-4FCF-B717-02D841DCF024}" name="放单" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C8C7C53-4E63-486D-A4CC-1F93E5AC1B60}" name="Table13" displayName="Table13" ref="B1:H15" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C8C7C53-4E63-486D-A4CC-1F93E5AC1B60}" name="Table13" displayName="Table13" ref="B1:H15" totalsRowShown="0" headerRowDxfId="18">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ABE085E9-38AC-47E8-B3A2-5C30C0C8E77B}" name="收货人" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{ABE085E9-38AC-47E8-B3A2-5C30C0C8E77B}" name="收货人" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{4C1E8850-730C-4891-A86F-DDC1C7895B1E}" name="发货人"/>
     <tableColumn id="5" xr3:uid="{E28A26C9-E593-46BD-BADB-C67576BCBF6D}" name="QQ"/>
-    <tableColumn id="13" xr3:uid="{7F2F960A-FA6F-4F24-B639-6025C1A8E05D}" name="结算方式" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{0309083A-555B-4646-9844-AD387ECE64C5}" name="SHPR开票" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{64B00BA6-69BF-4A33-BB52-1E823148E873}" name="提单" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{8F8ACAE1-1C91-42B9-A708-323A76D8EA16}" name="备注" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{7F2F960A-FA6F-4F24-B639-6025C1A8E05D}" name="结算方式" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{0309083A-555B-4646-9844-AD387ECE64C5}" name="SHPR开票" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{64B00BA6-69BF-4A33-BB52-1E823148E873}" name="提单" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{8F8ACAE1-1C91-42B9-A708-323A76D8EA16}" name="备注" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{801A5A6A-1E4C-4174-ACE2-C6A418A902D6}" name="表9" displayName="表9" ref="A1:L19" totalsRowShown="0" dataDxfId="22">
-  <autoFilter ref="A1:L19" xr:uid="{9E57F62D-E58D-4F53-BDCE-5B776E06BFC6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CASAMIA"/>
-        <filter val="PANCON"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="GLV"/>
-        <filter val="YAJIAJU"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{801A5A6A-1E4C-4174-ACE2-C6A418A902D6}" name="表9" displayName="表9" ref="A1:L19" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:L19" xr:uid="{9E57F62D-E58D-4F53-BDCE-5B776E06BFC6}"/>
   <tableColumns count="12">
-    <tableColumn id="11" xr3:uid="{5A945112-5F14-41C3-9DE6-7BED351F4092}" name="项目" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{C141BEBA-C970-48C1-94D8-B413103D61C8}" name="借方(收)" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{BDB2D4D6-4147-4B01-989B-036CBD1C4E8B}" name="贷方(支)" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{3CDA95A5-2AD7-4924-8416-52603DB1618A}" name="BKG(CTN)" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{4F83CA88-21A0-46EA-85B9-1FBEC95B1F92}" name="THC(CTN)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C9F7C4B1-4B79-4833-A3C8-3239519938C4}" name="DOC(BL)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{4DB1A085-A827-4E33-A8AC-76804C2E30CA}" name="LSS(CTN)" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{866E9090-FC2D-4403-9131-0A9C6FF9DB62}" name="MFF(BL)" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{606F8EED-FBB9-472E-9955-C9AEBD7FA87E}" name="OSF(BL)" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{66E23A14-4831-49C7-A0F8-629E1A3052D5}" name="HDC(BILL)" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{F2A7C4B2-AA25-435F-AAF6-D06CD510C397}" name="CCC(BL)" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{B0A15F85-C002-416E-826C-548D776FD6B3}" name="TRK(CTN)" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{5A945112-5F14-41C3-9DE6-7BED351F4092}" name="项目" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C141BEBA-C970-48C1-94D8-B413103D61C8}" name="借方(收)" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{BDB2D4D6-4147-4B01-989B-036CBD1C4E8B}" name="贷方(支)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3CDA95A5-2AD7-4924-8416-52603DB1618A}" name="BKG(CTN)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4F83CA88-21A0-46EA-85B9-1FBEC95B1F92}" name="THC(CTN)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C9F7C4B1-4B79-4833-A3C8-3239519938C4}" name="DOC(BL)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4DB1A085-A827-4E33-A8AC-76804C2E30CA}" name="LSS(CTN)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{866E9090-FC2D-4403-9131-0A9C6FF9DB62}" name="MFF(BL)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{606F8EED-FBB9-472E-9955-C9AEBD7FA87E}" name="OSF(BL)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{66E23A14-4831-49C7-A0F8-629E1A3052D5}" name="HDC(BILL)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F2A7C4B2-AA25-435F-AAF6-D06CD510C397}" name="CCC(BL)" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B0A15F85-C002-416E-826C-548D776FD6B3}" name="TRK(CTN)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6769,34 +6749,38 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6804,21 +6788,24 @@
         <v>43709</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1935E</v>
       </c>
       <c r="E2" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1935HN4XXX</v>
       </c>
-      <c r="G2" t="s">
-        <v>271</v>
+      <c r="F2" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6826,21 +6813,24 @@
         <v>43712</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1790E</v>
       </c>
       <c r="E3" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1790PE4XXX</v>
       </c>
-      <c r="G3" t="s">
-        <v>272</v>
+      <c r="F3" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6848,18 +6838,21 @@
         <v>43716</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D4" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1936E</v>
       </c>
       <c r="E4" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1936HN4XXX</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6867,24 +6860,21 @@
         <v>43719</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D5" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1791E</v>
       </c>
       <c r="E5" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1791PE4XXX</v>
       </c>
-      <c r="G5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" t="s">
-        <v>273</v>
+      <c r="F5" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6892,24 +6882,21 @@
         <v>43723</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="D6" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1937E</v>
       </c>
       <c r="E6" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1937HN4XXX</v>
       </c>
-      <c r="G6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" t="s">
-        <v>274</v>
+      <c r="F6" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6917,18 +6904,21 @@
         <v>43726</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1792E</v>
       </c>
       <c r="E7" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1792PE4XXX</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6936,18 +6926,21 @@
         <v>43730</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D8" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1938E</v>
       </c>
       <c r="E8" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1938HN4XXX</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6955,18 +6948,21 @@
         <v>43733</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D9" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1793E</v>
       </c>
       <c r="E9" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1793PE4XXX</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6974,18 +6970,21 @@
         <v>43737</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D10" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1939E</v>
       </c>
       <c r="E10" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1939HN4XXX</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6993,18 +6992,21 @@
         <v>43740</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D11" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1794E</v>
       </c>
       <c r="E11" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1794PE4XXX</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -7012,18 +7014,21 @@
         <v>43744</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D12" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1940E</v>
       </c>
       <c r="E12" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1940HN4XXX</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -7031,18 +7036,21 @@
         <v>43747</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D13" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1795E</v>
       </c>
       <c r="E13" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1795PE4XXX</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -7050,18 +7058,21 @@
         <v>43751</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D14" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1941E</v>
       </c>
       <c r="E14" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1941HN4XXX</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -7069,18 +7080,21 @@
         <v>43754</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D15" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1796E</v>
       </c>
       <c r="E15" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1796PE4XXX</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -7088,93 +7102,106 @@
         <v>43758</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D16" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1942E</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1942HN4XXX</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>43761</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D17" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1797E</v>
       </c>
       <c r="E17" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1797PE4XXX</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>43765</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D18" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>CHATTANOOGA 1943E</v>
       </c>
       <c r="E18" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1943HN4XXX</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>43768</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D19" s="16" t="str">
         <f>表3[[#This Row],[船名]]&amp;" "&amp;表3[[#This Row],[航次]]</f>
         <v>PEGASUS TERA 1798E</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],$G$5:$H$6,2,FALSE)&amp;"4XXX"</f>
+        <f>"PCLU"&amp;LEFT(表3[[#This Row],[航次]],4)&amp;VLOOKUP(表3[[#This Row],[船名]],{"CHATTANOOGA","HN";"PEGASUS TERA","PE"},2,FALSE)&amp;"4XXX"</f>
         <v>PCLU1798PE4XXX</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB549AE-7F1C-4627-B536-77B8D1131A88}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7200,46 +7227,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L1" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="M1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="R1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7247,10 +7274,10 @@
         <v>43723</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7261,7 +7288,7 @@
         <v>UE</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10">
@@ -7272,20 +7299,20 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7293,10 +7320,10 @@
         <v>43726</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7307,7 +7334,7 @@
         <v>KUKA</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10">
@@ -7321,13 +7348,13 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="R3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7335,10 +7362,10 @@
         <v>43726</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7349,7 +7376,7 @@
         <v>HUABAO</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="10">
         <v>9</v>
@@ -7363,13 +7390,13 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="R4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7377,10 +7404,10 @@
         <v>43726</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D5" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7391,7 +7418,7 @@
         <v>CABO</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10">
@@ -7405,13 +7432,13 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="R5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7419,10 +7446,10 @@
         <v>43726</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7447,13 +7474,13 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7461,10 +7488,10 @@
         <v>43726</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7489,13 +7516,13 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7503,10 +7530,10 @@
         <v>43726</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D8" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7517,7 +7544,7 @@
         <v>UE</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -7528,20 +7555,20 @@
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="R8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7549,10 +7576,10 @@
         <v>43727</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D9" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7577,13 +7604,13 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="R9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7591,10 +7618,10 @@
         <v>43730</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D10" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7605,7 +7632,7 @@
         <v>KUKA</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10">
@@ -7616,20 +7643,20 @@
         <v>2</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7637,10 +7664,10 @@
         <v>43730</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D11" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7651,7 +7678,7 @@
         <v>HUABAO</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="10">
         <v>10</v>
@@ -7662,20 +7689,20 @@
         <v>10</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="R11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7683,10 +7710,10 @@
         <v>43730</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D12" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7697,7 +7724,7 @@
         <v>CABO</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10">
@@ -7708,20 +7735,20 @@
         <v>6</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7729,10 +7756,10 @@
         <v>43730</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D13" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7757,13 +7784,13 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="R13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7771,10 +7798,10 @@
         <v>43730</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D14" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7799,13 +7826,13 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="R14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7813,10 +7840,10 @@
         <v>43730</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D15" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7841,7 +7868,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7849,10 +7876,10 @@
         <v>43733</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D16" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7863,7 +7890,7 @@
         <v>KUKA</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
@@ -7874,14 +7901,14 @@
         <v>2</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -7889,10 +7916,10 @@
         <v>43733</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D17" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7917,11 +7944,11 @@
         <v>8</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -7929,10 +7956,10 @@
         <v>43733</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D18" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7954,16 +7981,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
@@ -7971,10 +7998,10 @@
         <v>43733</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D19" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -7985,7 +8012,7 @@
         <v>HTL</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
@@ -7996,14 +8023,14 @@
         <v>6</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8011,10 +8038,10 @@
         <v>43733</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D20" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8025,7 +8052,7 @@
         <v>HUABAO</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="G20" s="10">
         <v>8</v>
@@ -8036,16 +8063,16 @@
         <v>8</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8053,10 +8080,10 @@
         <v>43733</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D21" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8067,7 +8094,7 @@
         <v>UE</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10">
@@ -8078,27 +8105,27 @@
         <v>4</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43737</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8109,7 +8136,7 @@
         <v>PHILOSOPHY</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -8120,14 +8147,14 @@
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8135,10 +8162,10 @@
         <v>43737</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D23" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8149,7 +8176,7 @@
         <v>KUKA</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
@@ -8163,11 +8190,11 @@
         <v>10</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8175,10 +8202,10 @@
         <v>43737</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8189,7 +8216,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10">
@@ -8200,14 +8227,14 @@
         <v>6</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8215,10 +8242,10 @@
         <v>43737</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8229,7 +8256,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10">
@@ -8240,25 +8267,25 @@
         <v>4</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43737</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D26" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8269,7 +8296,7 @@
         <v>YAJIAJU</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10">
@@ -8280,14 +8307,14 @@
         <v>4</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8295,10 +8322,10 @@
         <v>43737</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D27" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8309,7 +8336,7 @@
         <v>UE</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
@@ -8320,25 +8347,25 @@
         <v>8</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43740</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D28" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8349,7 +8376,7 @@
         <v>HUABAO</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="10">
         <v>7</v>
@@ -8360,27 +8387,27 @@
         <v>7</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43740</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D29" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8391,7 +8418,7 @@
         <v>HTL</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>217</v>
+        <v>470</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10">
@@ -8402,25 +8429,25 @@
         <v>4</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>51</v>
+        <v>437</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>55</v>
+        <v>471</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43740</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D30" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8431,7 +8458,7 @@
         <v>HTL</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>218</v>
+        <v>435</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10">
@@ -8442,16 +8469,16 @@
         <v>6</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>52</v>
+        <v>438</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>461</v>
+        <v>439</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>443</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8459,10 +8486,10 @@
         <v>43744</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D31" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8473,7 +8500,7 @@
         <v>KUKA</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10">
@@ -8484,14 +8511,14 @@
         <v>2</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>258</v>
+        <v>455</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8499,10 +8526,10 @@
         <v>43744</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D32" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8513,7 +8540,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
@@ -8524,14 +8551,14 @@
         <v>6</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8539,10 +8566,10 @@
         <v>43744</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8553,7 +8580,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
@@ -8564,14 +8591,14 @@
         <v>2</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8579,10 +8606,10 @@
         <v>43744</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8593,7 +8620,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
@@ -8604,14 +8631,14 @@
         <v>2</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8619,10 +8646,10 @@
         <v>43744</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8633,7 +8660,7 @@
         <v>KUKA</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
@@ -8644,14 +8671,14 @@
         <v>2</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8659,10 +8686,10 @@
         <v>43744</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="D36" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8673,7 +8700,7 @@
         <v>KUKA</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10">
@@ -8684,14 +8711,14 @@
         <v>2</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8699,10 +8726,10 @@
         <v>43744</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D37" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8713,7 +8740,7 @@
         <v>ZHOUJI</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10">
@@ -8724,14 +8751,14 @@
         <v>2</v>
       </c>
       <c r="J37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8739,10 +8766,10 @@
         <v>43744</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8753,7 +8780,7 @@
         <v>UE</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10">
@@ -8764,16 +8791,16 @@
         <v>12</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8781,10 +8808,10 @@
         <v>43747</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D39" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8795,25 +8822,25 @@
         <v>CABO</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="10">
         <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
@@ -8821,10 +8848,10 @@
         <v>43747</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D40" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8835,25 +8862,25 @@
         <v>HTL</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>223</v>
+        <v>434</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="10">
         <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8861,10 +8888,10 @@
         <v>43747</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D41" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8875,7 +8902,7 @@
         <v>KUKA</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10">
@@ -8886,14 +8913,14 @@
         <v>2</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8901,10 +8928,10 @@
         <v>43747</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D42" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8915,7 +8942,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10">
@@ -8926,14 +8953,14 @@
         <v>2</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8941,10 +8968,10 @@
         <v>43747</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8955,7 +8982,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G43" s="10">
         <v>1</v>
@@ -8966,14 +8993,14 @@
         <v>1</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8981,10 +9008,10 @@
         <v>43747</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -8995,7 +9022,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10">
@@ -9006,16 +9033,16 @@
         <v>2</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9023,10 +9050,10 @@
         <v>43747</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D45" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9037,7 +9064,7 @@
         <v>UE</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10">
@@ -9048,16 +9075,16 @@
         <v>2</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9065,10 +9092,10 @@
         <v>43751</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9079,7 +9106,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10">
@@ -9090,25 +9117,25 @@
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43751</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D47" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9119,25 +9146,25 @@
         <v>HTL</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>250</v>
+        <v>433</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47" s="10">
         <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9145,10 +9172,10 @@
         <v>43751</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D48" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9159,25 +9186,27 @@
         <v>KUKA</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="10">
         <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="L48" s="10"/>
+        <v>372</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>442</v>
+      </c>
       <c r="M48" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9185,10 +9214,10 @@
         <v>43751</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D49" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9199,7 +9228,7 @@
         <v>YAJIAJU</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10">
@@ -9210,14 +9239,14 @@
         <v>4</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
@@ -9225,10 +9254,10 @@
         <v>43754</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D50" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9239,7 +9268,7 @@
         <v>KUKA</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10">
@@ -9250,14 +9279,14 @@
         <v>8</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9265,10 +9294,10 @@
         <v>43754</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D51" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9279,7 +9308,7 @@
         <v>CABO</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10">
@@ -9290,14 +9319,14 @@
         <v>6</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9305,10 +9334,10 @@
         <v>43754</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9319,7 +9348,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10">
@@ -9330,14 +9359,14 @@
         <v>2</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9345,10 +9374,10 @@
         <v>43754</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9359,7 +9388,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10">
@@ -9370,14 +9399,14 @@
         <v>2</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9385,10 +9414,10 @@
         <v>43758</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D54" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9399,7 +9428,7 @@
         <v>KUKA</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10">
@@ -9410,14 +9439,14 @@
         <v>2</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
@@ -9425,10 +9454,10 @@
         <v>43758</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D55" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9439,7 +9468,7 @@
         <v>HTL</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10">
@@ -9450,14 +9479,14 @@
         <v>4</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
@@ -9465,10 +9494,10 @@
         <v>43758</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D56" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9479,7 +9508,7 @@
         <v>HTL</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10">
@@ -9490,14 +9519,14 @@
         <v>8</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9505,10 +9534,10 @@
         <v>43758</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D57" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9519,7 +9548,7 @@
         <v>CABO</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10">
@@ -9530,14 +9559,14 @@
         <v>2</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9545,10 +9574,10 @@
         <v>43758</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9559,7 +9588,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10">
@@ -9570,14 +9599,14 @@
         <v>8</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9585,10 +9614,10 @@
         <v>43758</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9599,7 +9628,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10">
@@ -9610,14 +9639,14 @@
         <v>4</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9625,10 +9654,10 @@
         <v>43758</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D60" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9639,7 +9668,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10">
@@ -9650,14 +9679,14 @@
         <v>2</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -9665,10 +9694,10 @@
         <v>43761</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -9679,7 +9708,7 @@
         <v>HTL</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10">
@@ -9689,22 +9718,104 @@
         <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
         <v>2</v>
       </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
+      <c r="J61" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>444</v>
+      </c>
       <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="M61" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
+        <v>洲际 - CASAMIA</v>
+      </c>
+      <c r="E62" s="14" t="str">
+        <f>VLOOKUP(Table135[[#This Row],[CN]],表5[],2,FALSE)</f>
+        <v>ZHOUJI</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
+        <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
+        <v>2</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
+        <v>洲际 - CASAMIA</v>
+      </c>
+      <c r="E63" s="14" t="str">
+        <f>VLOOKUP(Table135[[#This Row],[CN]],表5[],2,FALSE)</f>
+        <v>ZHOUJI</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10">
+        <v>1</v>
+      </c>
+      <c r="I63" s="10">
+        <f>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</f>
+        <v>2</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="R34:S66">
-    <sortCondition ref="R34:R66"/>
-    <sortCondition ref="S34:S66"/>
+  <sortState ref="R34:S64">
+    <sortCondition ref="R34:R64"/>
+    <sortCondition ref="S34:S64"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K2:K61">
-    <cfRule type="duplicateValues" dxfId="101" priority="11"/>
+  <conditionalFormatting sqref="K2:K63">
+    <cfRule type="duplicateValues" dxfId="85" priority="22"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M61" xr:uid="{A79C949C-5D3E-4F28-9A58-4BF936B5CF66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M63" xr:uid="{A79C949C-5D3E-4F28-9A58-4BF936B5CF66}">
       <formula1>"OK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9719,11 +9830,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8A4E38-2CCC-440F-8550-06500B8A4D94}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9731,87 +9842,102 @@
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
+        <v>463</v>
       </c>
       <c r="H1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I1" s="34">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="41">
         <v>43740</v>
       </c>
-      <c r="J1" s="34">
-        <f>I1+7</f>
+      <c r="K1" s="41">
+        <f>J2+3</f>
         <v>43747</v>
       </c>
-      <c r="K1" s="34">
-        <f t="shared" ref="K1:N1" si="0">J1+7</f>
+      <c r="L1" s="41">
+        <f t="shared" ref="L1:O1" si="0">K2+3</f>
         <v>43754</v>
       </c>
-      <c r="L1" s="34">
+      <c r="M1" s="41">
         <f t="shared" si="0"/>
         <v>43761</v>
       </c>
-      <c r="M1" s="34">
+      <c r="N1" s="41">
         <f t="shared" si="0"/>
         <v>43768</v>
       </c>
-      <c r="N1" s="34">
+      <c r="O1" s="41">
         <f t="shared" si="0"/>
         <v>43775</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>464</v>
+      </c>
       <c r="H2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I2" s="34">
+        <v>460</v>
+      </c>
+      <c r="I2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="41">
+        <f>J1+4</f>
         <v>43744</v>
       </c>
-      <c r="J2" s="34">
-        <f>I2+7</f>
+      <c r="K2" s="41">
+        <f>K1+4</f>
         <v>43751</v>
       </c>
-      <c r="K2" s="34">
-        <f t="shared" ref="K2:N2" si="1">J2+7</f>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2:O2" si="1">L1+4</f>
         <v>43758</v>
       </c>
-      <c r="L2" s="34">
+      <c r="M2" s="41">
         <f t="shared" si="1"/>
         <v>43765</v>
       </c>
-      <c r="M2" s="34">
+      <c r="N2" s="41">
         <f t="shared" si="1"/>
         <v>43772</v>
       </c>
-      <c r="N2" s="34">
+      <c r="O2" s="41">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15">
@@ -9821,9 +9947,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15">
@@ -9833,9 +9959,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B6" s="15">
         <v>10</v>
@@ -9847,9 +9973,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15">
@@ -9859,9 +9985,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15">
@@ -9871,9 +9997,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15">
@@ -9883,9 +10009,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B10" s="15">
         <v>9</v>
@@ -9895,9 +10021,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -9907,9 +10033,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
@@ -9919,9 +10045,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -9931,9 +10057,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B14" s="15">
         <v>10</v>
@@ -9945,9 +10071,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15">
@@ -9957,9 +10083,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15">
@@ -9971,7 +10097,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15">
@@ -9983,7 +10109,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B18" s="15">
         <v>10</v>
@@ -9995,7 +10121,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B19" s="15">
         <v>8</v>
@@ -10009,7 +10135,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15">
@@ -10021,7 +10147,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15">
@@ -10033,7 +10159,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15">
@@ -10045,7 +10171,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B23" s="15">
         <v>8</v>
@@ -10057,7 +10183,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15">
@@ -10069,7 +10195,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" s="15">
         <v>1</v>
@@ -10083,7 +10209,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15">
@@ -10095,7 +10221,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15">
@@ -10107,7 +10233,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
@@ -10119,7 +10245,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15">
@@ -10131,7 +10257,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B30" s="15">
         <v>1</v>
@@ -10143,7 +10269,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B31" s="15">
         <v>7</v>
@@ -10157,7 +10283,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15">
@@ -10167,9 +10293,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B33" s="15">
         <v>7</v>
@@ -10179,9 +10305,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15">
@@ -10191,9 +10317,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15">
@@ -10203,9 +10329,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15">
@@ -10215,9 +10341,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15">
@@ -10227,9 +10353,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15">
@@ -10239,23 +10365,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B39" s="15">
         <v>1</v>
       </c>
       <c r="C39" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15">
@@ -10265,9 +10391,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
@@ -10279,21 +10405,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15">
         <v>2</v>
       </c>
-      <c r="D42" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15">
@@ -10303,9 +10429,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15">
@@ -10315,33 +10441,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15">
@@ -10351,22 +10477,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="15">
-        <v>6</v>
-      </c>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15">
@@ -10375,24 +10501,24 @@
       <c r="D49" s="15">
         <v>4</v>
       </c>
-      <c r="I49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="34"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="15">
-        <v>18</v>
-      </c>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15">
@@ -10401,73 +10527,73 @@
       <c r="D51" s="15">
         <v>4</v>
       </c>
-      <c r="I51" s="34"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="34"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" s="15">
-        <v>6</v>
-      </c>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J52" s="34"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="15">
-        <v>8</v>
-      </c>
-      <c r="I53" s="34"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
-        <v>244</v>
+        <v>6</v>
+      </c>
+      <c r="J53" s="34"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D54" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>233</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D55" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15">
@@ -10477,21 +10603,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D58" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
-        <v>466</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15">
@@ -10501,9 +10627,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15">
@@ -10513,18 +10639,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15">
+        <v>1</v>
+      </c>
+      <c r="D62" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="15">
         <v>38</v>
       </c>
-      <c r="C61" s="15">
-        <v>100</v>
-      </c>
-      <c r="D61" s="15">
-        <v>238</v>
+      <c r="C63" s="15">
+        <v>103</v>
+      </c>
+      <c r="D63" s="15">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -10538,13 +10688,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10563,1045 +10713,1141 @@
   <sheetData>
     <row r="1" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>390</v>
-      </c>
       <c r="N1" s="26" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="X1" s="26" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="Y1" s="26" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>43733</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>43733</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z3" s="38" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>43733</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>43733</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>43733</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>43737</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="V7" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="W7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z7" s="23"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>43737</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>247</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X8" s="22"/>
       <c r="Y8" s="22"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8" s="38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>43737</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z9" s="23"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>43737</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="W10" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X10" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="23"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>43737</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z11" s="23"/>
-    </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>43740</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="K12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R12" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="W12" s="22"/>
       <c r="X12" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z12" s="23"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>43740</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R13" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
-      <c r="Z13" s="23"/>
+      <c r="Z13" s="38" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>43744</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="22" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+        <v>328</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="H14" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="K14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R14" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
-      <c r="Z14" s="23"/>
+      <c r="Z14" s="38" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>43744</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="K15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R15" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y15" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z15" s="23"/>
     </row>
@@ -11610,35 +11856,69 @@
         <v>43744</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>355</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+        <v>328</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
+      <c r="X16" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y16" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -11646,43 +11926,61 @@
         <v>43744</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="K17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R17" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
@@ -11694,42 +11992,58 @@
         <v>43747</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="K18" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R18" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T18" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
@@ -11742,40 +12056,46 @@
         <v>43747</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="K19" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
@@ -11790,48 +12110,64 @@
         <v>43747</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="H20" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
+      <c r="K20" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T20" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y20" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z20" s="23"/>
     </row>
@@ -11840,27 +12176,29 @@
         <v>43747</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="I21" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -11876,54 +12214,70 @@
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Y21" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Z21" s="23"/>
     </row>
     <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
-        <v>43751</v>
+        <v>43747</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="K22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="R22" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="T22" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -11936,26 +12290,26 @@
         <v>43751</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -11966,48 +12320,44 @@
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y23" s="22" t="s">
-        <v>285</v>
-      </c>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
       <c r="Z23" s="23"/>
     </row>
     <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
-        <v>43747</v>
+        <v>43751</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -12018,42 +12368,48 @@
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
+      <c r="X24" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="Z24" s="23"/>
     </row>
     <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
-        <v>43754</v>
+        <v>43751</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>203</v>
+        <v>370</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="H25" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -12064,10 +12420,10 @@
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
@@ -12079,27 +12435,29 @@
     </row>
     <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
-        <v>43754</v>
+        <v>43751</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="H26" s="22" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -12109,22 +12467,14 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
-      <c r="R26" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="S26" s="22" t="s">
-        <v>285</v>
-      </c>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
-      <c r="X26" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y26" s="22" t="s">
-        <v>285</v>
-      </c>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
       <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -12132,26 +12482,24 @@
         <v>43754</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>284</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C27" s="21"/>
       <c r="D27" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -12162,10 +12510,10 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
       <c r="R27" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
@@ -12177,27 +12525,27 @@
     </row>
     <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -12208,44 +12556,48 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
       <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
+      <c r="X28" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>270</v>
+      </c>
       <c r="Z28" s="25"/>
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -12256,10 +12608,10 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
@@ -12271,27 +12623,27 @@
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
-        <v>43758</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>163</v>
+        <v>43754</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>449</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -12302,10 +12654,10 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S30" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
@@ -12317,25 +12669,27 @@
     </row>
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
-        <v>43751</v>
+        <v>43758</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>399</v>
+        <v>197</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="24"/>
+        <v>238</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>238</v>
+      </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
@@ -12346,10 +12700,10 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
       <c r="R31" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
@@ -12364,22 +12718,26 @@
         <v>43758</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C32" s="21"/>
+        <v>193</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="D32" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" s="24"/>
+        <v>238</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>238</v>
+      </c>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -12390,41 +12748,43 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S32" s="24" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
       <c r="W32" s="24"/>
-      <c r="X32" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>285</v>
-      </c>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
       <c r="Z32" s="25"/>
     </row>
     <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
-        <v>43751</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>411</v>
+        <v>43758</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F33" s="24"/>
+        <v>238</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>238</v>
+      </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="H33" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>270</v>
+      </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -12433,8 +12793,12 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
+      <c r="R33" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>270</v>
+      </c>
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
@@ -12445,23 +12809,27 @@
     </row>
     <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
-        <v>43761</v>
+        <v>43758</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>238</v>
+      </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -12472,90 +12840,122 @@
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
+      <c r="X34" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y34" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="Z34" s="22"/>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30">
+        <v>43758</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="25"/>
+    </row>
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30">
+        <v>43761</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D10:T10 H31:I32 R31:S32 D31:E33 D11:Z30 D2:Z9 V10:Z10">
-    <cfRule type="cellIs" dxfId="66" priority="19" operator="equal">
+  <conditionalFormatting sqref="D1:Z36">
+    <cfRule type="cellIs" dxfId="50" priority="29" stopIfTrue="1" operator="equal">
       <formula>"╳"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="20" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:G34 J34:Q34 T34:Z34">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"╳"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="30" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12575,8 +12975,8 @@
   </sheetPr>
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12594,263 +12994,263 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -12858,16 +13258,16 @@
     </row>
     <row r="13" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -12875,81 +13275,81 @@
     </row>
     <row r="14" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -12967,7 +13367,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12987,63 +13387,63 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="F1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K1" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>320</v>
-      </c>
       <c r="C2" s="33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="32">
         <v>430</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H2" s="32">
         <v>20</v>
@@ -13055,25 +13455,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" s="32">
         <v>500</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H3" s="32">
         <v>20</v>
@@ -13083,27 +13483,27 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F4" s="32">
         <v>425</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -13111,27 +13511,27 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F5" s="32">
         <v>500</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -13139,33 +13539,33 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="F6" s="32">
         <v>500</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="H6" s="32">
         <v>20</v>
       </c>
-      <c r="I6" s="32">
-        <v>200</v>
+      <c r="I6" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J6" s="32">
         <v>100</v>
@@ -13173,31 +13573,31 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="32">
         <v>500</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="32">
-        <v>200</v>
+      <c r="I7" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J7" s="32">
         <v>100</v>
@@ -13205,33 +13605,33 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="F8" s="32">
         <v>500</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H8" s="32">
         <v>20</v>
       </c>
-      <c r="I8" s="32">
-        <v>200</v>
+      <c r="I8" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J8" s="32">
         <v>100</v>
@@ -13241,67 +13641,67 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="F9" s="32">
         <v>500</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="H9" s="32">
         <v>20</v>
       </c>
-      <c r="I9" s="32">
-        <v>200</v>
+      <c r="I9" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32">
         <v>150</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="F10" s="32">
         <v>500</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="H10" s="32">
         <v>20</v>
       </c>
-      <c r="I10" s="32">
-        <v>200</v>
+      <c r="I10" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J10" s="32">
         <v>100</v>
@@ -13309,15 +13709,15 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -13329,15 +13729,15 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>313</v>
+        <v>467</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -13349,27 +13749,27 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="F13" s="32">
         <v>500</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="H13" s="32">
         <v>20</v>
@@ -13379,21 +13779,21 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -13401,15 +13801,15 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -13421,31 +13821,31 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F16" s="32">
         <v>500</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="32">
-        <v>200</v>
+      <c r="I16" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J16" s="32">
         <v>100</v>
@@ -13453,31 +13853,31 @@
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F17" s="32">
         <v>500</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H17" s="32"/>
-      <c r="I17" s="32">
-        <v>200</v>
+      <c r="I17" s="32" t="s">
+        <v>446</v>
       </c>
       <c r="J17" s="32">
         <v>100</v>
@@ -13485,27 +13885,27 @@
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>319</v>
+        <v>155</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F18" s="32">
         <v>500</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H18" s="32">
         <v>20</v>
@@ -13517,27 +13917,27 @@
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="F19" s="32">
         <v>500</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="H19" s="32">
         <v>20</v>

--- a/yjc/家居.xlsx
+++ b/yjc/家居.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\yjc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949A6C3-B76C-4C0A-BE42-7568430B09F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23383DB-0274-44ED-A643-2DD66EEC0A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="船期表" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="62" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="542">
   <si>
     <t>ETD</t>
   </si>
@@ -1705,10 +1705,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>拼4403</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2001,6 +1997,10 @@
   </si>
   <si>
     <t>出2份提单 A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(A5948 GLV)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2342,453 @@
     <cellStyle name="표준 2" xfId="1" xr:uid="{08E4E7BD-B9F9-42CD-AE60-3D130BABA0F0}"/>
     <cellStyle name="표준 8" xfId="2" xr:uid="{AFC6B669-AECF-4343-B3D5-6010716D6012}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="114">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;\ aaa"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mm/dd\ aaa"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4267,7 +4713,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yjc" refreshedDate="43750.623945023151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="76" xr:uid="{FD88DD72-01B5-423A-9DFA-2D2210298B54}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yjc" refreshedDate="43751.675070254627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="76" xr:uid="{FD88DD72-01B5-423A-9DFA-2D2210298B54}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table135"/>
   </cacheSource>
@@ -5315,7 +5761,7 @@
     <n v="4"/>
     <s v="YJCSHAN1915775"/>
     <s v="PCLU1795PE4400"/>
-    <s v="出2份提单"/>
+    <s v="出2份提单 A"/>
     <s v="OK"/>
   </r>
   <r>
@@ -5345,7 +5791,7 @@
     <n v="4"/>
     <s v="YJCSHAN1915768"/>
     <s v="PCLU1795PE4300"/>
-    <s v="出2份提单"/>
+    <s v="出2份提单 A"/>
     <s v="OK"/>
   </r>
   <r>
@@ -5465,7 +5911,7 @@
     <n v="4"/>
     <s v="YJCSHAN1915772"/>
     <s v="PCLU1941HN4308"/>
-    <s v="4310 4312"/>
+    <s v="拼4310 4312"/>
     <s v="OK"/>
   </r>
   <r>
@@ -5907,7 +6353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED71FF22-6E7F-452C-9333-B934B1ADBFE2}" name="数据透视表3" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED71FF22-6E7F-452C-9333-B934B1ADBFE2}" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="176" showAll="0">
@@ -6518,16 +6964,16 @@
     <dataField name="TEUU" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="70">
+    <format dxfId="92">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="90">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="14">
@@ -6549,10 +6995,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6564,7 +7010,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6577,7 +7023,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6590,7 +7036,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6606,7 +7052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6621,7 +7067,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6637,7 +7083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6649,7 +7095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6664,7 +7110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6680,7 +7126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6694,7 +7140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6707,7 +7153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6720,7 +7166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6733,7 +7179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -6746,7 +7192,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -6757,14 +7203,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="16">
@@ -6802,15 +7248,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F251878-450B-4C6C-9BD9-08C3E722BFDB}" name="表3" displayName="表3" ref="A1:F19" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F251878-450B-4C6C-9BD9-08C3E722BFDB}" name="表3" displayName="表3" ref="A1:F19" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:F19" xr:uid="{820BD5A2-AD66-4D9B-AC3E-64CBF0B4B21A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D075319D-DCE2-4203-B078-3F588EAB591A}" name="ETD" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{C82A9C09-C14B-443E-912A-E603A3D04F39}" name="船名" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{A7532413-2A72-4632-B601-DE7731C72187}" name="航次" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{481AEBDD-33EF-4909-9917-F48E051CEF76}" name="船名航次" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{E6D1B694-EAB3-43C5-AEF8-5854E76AB417}" name="列1" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{EE973C25-430B-4F5A-8A55-AA901FBD80AB}" name="列2" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{D075319D-DCE2-4203-B078-3F588EAB591A}" name="ETD" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{C82A9C09-C14B-443E-912A-E603A3D04F39}" name="船名" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{A7532413-2A72-4632-B601-DE7731C72187}" name="航次" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{481AEBDD-33EF-4909-9917-F48E051CEF76}" name="船名航次" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{E6D1B694-EAB3-43C5-AEF8-5854E76AB417}" name="列1" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{EE973C25-430B-4F5A-8A55-AA901FBD80AB}" name="列2" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6818,27 +7264,33 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{46A5E682-6FCC-4DC5-B412-FBC444028D65}" name="Table135" displayName="Table135" ref="A1:M77" totalsRowShown="0">
-  <autoFilter ref="A1:M77" xr:uid="{27122EDD-454A-4B5B-BA80-E5D57F9762C1}"/>
+  <autoFilter ref="A1:M77" xr:uid="{27122EDD-454A-4B5B-BA80-E5D57F9762C1}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2019" month="10" day="13" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="5" xr3:uid="{D5A41DDC-7E3C-4252-B958-4FFBB6F0B188}" name="ETD" dataDxfId="82"/>
-    <tableColumn id="1" xr3:uid="{E0A23808-EA69-463C-842B-C0CB379DD66A}" name="CNEE" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{D5A41DDC-7E3C-4252-B958-4FFBB6F0B188}" name="ETD" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{E0A23808-EA69-463C-842B-C0CB379DD66A}" name="CNEE" dataDxfId="103"/>
     <tableColumn id="3" xr3:uid="{8852D5F7-2872-4FFE-AF69-A4095F3F311A}" name="CN"/>
-    <tableColumn id="6" xr3:uid="{9FDEA0A4-FFA6-4738-AFE3-9127A65192BA}" name="显示名称" dataDxfId="80">
+    <tableColumn id="6" xr3:uid="{9FDEA0A4-FFA6-4738-AFE3-9127A65192BA}" name="显示名称" dataDxfId="102">
       <calculatedColumnFormula>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D99B457A-5E43-4826-89CE-4DF7C66631D0}" name="EN" dataDxfId="79">
+    <tableColumn id="2" xr3:uid="{D99B457A-5E43-4826-89CE-4DF7C66631D0}" name="EN" dataDxfId="101">
       <calculatedColumnFormula>VLOOKUP(Table135[[#This Row],[CN]],表5[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3AE3033B-B2DD-4FF9-845B-D12C06A80CBC}" name="PO" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{D9AF6816-6FE9-42B6-90DE-3B1C3A49928E}" name="20'" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{64ABF70C-DC54-4BAF-B684-7A0D11798790}" name="40'" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{BE98B6FD-F003-4FCB-A09B-5B40F0BECB41}" name="TEU" dataDxfId="75">
+    <tableColumn id="4" xr3:uid="{3AE3033B-B2DD-4FF9-845B-D12C06A80CBC}" name="PO" dataDxfId="100"/>
+    <tableColumn id="14" xr3:uid="{D9AF6816-6FE9-42B6-90DE-3B1C3A49928E}" name="20'" dataDxfId="99"/>
+    <tableColumn id="15" xr3:uid="{64ABF70C-DC54-4BAF-B684-7A0D11798790}" name="40'" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{BE98B6FD-F003-4FCB-A09B-5B40F0BECB41}" name="TEU" dataDxfId="97">
       <calculatedColumnFormula>Table135[[#This Row],[20'']]+Table135[[#This Row],[40'']]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D1DAA04E-3900-49B6-9D5B-7360FA9CB116}" name="HBL" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{A389ED21-5E02-4B63-AFC5-F1294CD613FF}" name="MBL" dataDxfId="73"/>
-    <tableColumn id="11" xr3:uid="{D31A235D-4A91-49D5-8512-BC3C138F03B6}" name="备注" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{7410B7FF-4059-4669-8915-AFABD73C023C}" name="OK" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{D1DAA04E-3900-49B6-9D5B-7360FA9CB116}" name="HBL" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{A389ED21-5E02-4B63-AFC5-F1294CD613FF}" name="MBL" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{D31A235D-4A91-49D5-8512-BC3C138F03B6}" name="备注" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{7410B7FF-4059-4669-8915-AFABD73C023C}" name="OK" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6855,90 +7307,75 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B441CA60-9996-4823-9631-6B79F1CBAF83}" name="表8" displayName="表8" ref="A1:Z46" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B441CA60-9996-4823-9631-6B79F1CBAF83}" name="表8" displayName="表8" ref="A1:Z46" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66" totalsRowBorderDxfId="65">
   <autoFilter ref="A1:Z46" xr:uid="{4848E19E-9770-4EF2-957E-4883102A42C0}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" month="10" day="9" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="10" day="13" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="33" xr3:uid="{FFB772AD-7961-4AF0-A343-8EF68408E581}" name="ETD" dataDxfId="42"/>
-    <tableColumn id="1" xr3:uid="{DD461CCA-4517-4E98-906F-3EAB828CBAE8}" name="SHPR" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{610BC8AA-6CF7-4530-BB23-3900696A452B}" name="说明" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{C7FBFEAF-3B24-4430-99EE-472866BBB78F}" name="托书_x000a_是否_x000a_超限" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{FD9BB9C6-4925-4292-B40A-B2442609822A}" name="五步_x000a_订舱" dataDxfId="38"/>
-    <tableColumn id="35" xr3:uid="{1565FDB9-F8CC-4261-88DA-1E0A7AC44F2E}" name="KY_x000a_确认" dataDxfId="37"/>
-    <tableColumn id="40" xr3:uid="{79E22D25-B265-4532-9D0C-7BFB902D8675}" name="振华_x000a_审核" dataDxfId="36"/>
-    <tableColumn id="37" xr3:uid="{97C717B8-DB44-45AF-8B81-151042B1443A}" name="振华_x000a_加拼_x000a_提交" dataDxfId="35"/>
-    <tableColumn id="36" xr3:uid="{8FADEA53-7B52-4F14-83A5-45513FB6EAC2}" name="振华_x000a_拼核" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{5A515F49-F89E-4286-B9BD-B318AD2640C1}" name="录_x000a_费用" dataDxfId="33"/>
-    <tableColumn id="41" xr3:uid="{380DE760-4572-4325-AE84-0D63150ABC01}" name="收_x000a_资料" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{F0049236-1AFC-45B4-9CBB-742944BBE002}" name="YJC_x000a_截单" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{D4C67CBE-6558-404F-A8D0-D234A01EA7BF}" name="发HBL_x000a_和INV" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{4EA6E925-BC45-44FB-88BE-7E356E832C8E}" name="振华_x000a_录入" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{39031770-24D7-4251-83C2-6D9C51435B2F}" name="HBL_x000a_INV_x000a_确认" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{C46F7B56-BA33-46DE-819A-3F42D0C61863}" name="发_x000a_舱单" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{2409B3B5-68AD-4B2C-8998-95F0DE45831C}" name="确认_x000a_舱单" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{E8D84A53-92DE-4877-89A2-36EB1150C2A3}" name="并单" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{BA4F5147-A73A-4C12-9D4C-0455962CF9E2}" name="审核" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{F8063949-AB34-494B-8DFC-100B64C6369C}" name="VGM" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{44CF02AB-D86C-4783-97CD-2E2313B8D659}" name="邮件_x000a_KY" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{C1B5B7BF-1648-4A5C-9FF0-68A5372723DA}" name="统计_x000a_费用" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{2F64CBB1-11D9-441C-B553-FF0F047C7793}" name="APP" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{3D6AC291-A8CB-4072-8908-6B43D3EBF9A9}" name="发票" dataDxfId="19"/>
-    <tableColumn id="26" xr3:uid="{72487BE9-2C92-4AAB-B75E-4F1A59FE63BA}" name="水单" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{99DFA36B-3339-4FCF-B717-02D841DCF024}" name="放单" dataDxfId="17"/>
+    <tableColumn id="33" xr3:uid="{FFB772AD-7961-4AF0-A343-8EF68408E581}" name="ETD" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{DD461CCA-4517-4E98-906F-3EAB828CBAE8}" name="SHPR" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{610BC8AA-6CF7-4530-BB23-3900696A452B}" name="说明" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{C7FBFEAF-3B24-4430-99EE-472866BBB78F}" name="托书_x000a_是否_x000a_超限" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{FD9BB9C6-4925-4292-B40A-B2442609822A}" name="五步_x000a_订舱" dataDxfId="60"/>
+    <tableColumn id="35" xr3:uid="{1565FDB9-F8CC-4261-88DA-1E0A7AC44F2E}" name="KY_x000a_确认" dataDxfId="59"/>
+    <tableColumn id="40" xr3:uid="{79E22D25-B265-4532-9D0C-7BFB902D8675}" name="振华_x000a_审核" dataDxfId="58"/>
+    <tableColumn id="37" xr3:uid="{97C717B8-DB44-45AF-8B81-151042B1443A}" name="振华_x000a_加拼_x000a_提交" dataDxfId="57"/>
+    <tableColumn id="36" xr3:uid="{8FADEA53-7B52-4F14-83A5-45513FB6EAC2}" name="振华_x000a_拼核" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{5A515F49-F89E-4286-B9BD-B318AD2640C1}" name="录_x000a_费用" dataDxfId="55"/>
+    <tableColumn id="41" xr3:uid="{380DE760-4572-4325-AE84-0D63150ABC01}" name="收_x000a_资料" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{F0049236-1AFC-45B4-9CBB-742944BBE002}" name="YJC_x000a_截单" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{D4C67CBE-6558-404F-A8D0-D234A01EA7BF}" name="发HBL_x000a_和INV" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{4EA6E925-BC45-44FB-88BE-7E356E832C8E}" name="振华_x000a_录入" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{39031770-24D7-4251-83C2-6D9C51435B2F}" name="HBL_x000a_INV_x000a_确认" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{C46F7B56-BA33-46DE-819A-3F42D0C61863}" name="发_x000a_舱单" dataDxfId="49"/>
+    <tableColumn id="18" xr3:uid="{2409B3B5-68AD-4B2C-8998-95F0DE45831C}" name="确认_x000a_舱单" dataDxfId="48"/>
+    <tableColumn id="19" xr3:uid="{E8D84A53-92DE-4877-89A2-36EB1150C2A3}" name="并单" dataDxfId="47"/>
+    <tableColumn id="20" xr3:uid="{BA4F5147-A73A-4C12-9D4C-0455962CF9E2}" name="审核" dataDxfId="46"/>
+    <tableColumn id="21" xr3:uid="{F8063949-AB34-494B-8DFC-100B64C6369C}" name="VGM" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{44CF02AB-D86C-4783-97CD-2E2313B8D659}" name="邮件_x000a_KY" dataDxfId="44"/>
+    <tableColumn id="22" xr3:uid="{C1B5B7BF-1648-4A5C-9FF0-68A5372723DA}" name="统计_x000a_费用" dataDxfId="43"/>
+    <tableColumn id="31" xr3:uid="{2F64CBB1-11D9-441C-B553-FF0F047C7793}" name="APP" dataDxfId="42"/>
+    <tableColumn id="25" xr3:uid="{3D6AC291-A8CB-4072-8908-6B43D3EBF9A9}" name="发票" dataDxfId="41"/>
+    <tableColumn id="26" xr3:uid="{72487BE9-2C92-4AAB-B75E-4F1A59FE63BA}" name="水单" dataDxfId="40"/>
+    <tableColumn id="30" xr3:uid="{99DFA36B-3339-4FCF-B717-02D841DCF024}" name="放单" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C8C7C53-4E63-486D-A4CC-1F93E5AC1B60}" name="Table13" displayName="Table13" ref="B1:F15" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C8C7C53-4E63-486D-A4CC-1F93E5AC1B60}" name="Table13" displayName="Table13" ref="B1:F15" totalsRowShown="0" headerRowDxfId="38">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ABE085E9-38AC-47E8-B3A2-5C30C0C8E77B}" name="收货人" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{ABE085E9-38AC-47E8-B3A2-5C30C0C8E77B}" name="收货人" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{4C1E8850-730C-4891-A86F-DDC1C7895B1E}" name="发货人"/>
     <tableColumn id="5" xr3:uid="{E28A26C9-E593-46BD-BADB-C67576BCBF6D}" name="QQ"/>
-    <tableColumn id="3" xr3:uid="{CF66E046-C73F-4051-9DBF-4C6682FCF5D0}" name="邮件" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" xr3:uid="{8F8ACAE1-1C91-42B9-A708-323A76D8EA16}" name="备注" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CF66E046-C73F-4051-9DBF-4C6682FCF5D0}" name="邮件" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{8F8ACAE1-1C91-42B9-A708-323A76D8EA16}" name="备注" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{801A5A6A-1E4C-4174-ACE2-C6A418A902D6}" name="表9" displayName="表9" ref="A1:L19" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L19" xr:uid="{9E57F62D-E58D-4F53-BDCE-5B776E06BFC6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CASAMIA"/>
-        <filter val="EFFEX"/>
-        <filter val="HANSSEM"/>
-        <filter val="PANCON"/>
-        <filter val="SSEM"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="永艺"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{801A5A6A-1E4C-4174-ACE2-C6A418A902D6}" name="表9" displayName="表9" ref="A1:L19" totalsRowShown="0" dataDxfId="34">
+  <autoFilter ref="A1:L19" xr:uid="{9E57F62D-E58D-4F53-BDCE-5B776E06BFC6}"/>
   <tableColumns count="12">
-    <tableColumn id="11" xr3:uid="{5A945112-5F14-41C3-9DE6-7BED351F4092}" name="项目" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{C141BEBA-C970-48C1-94D8-B413103D61C8}" name="借方(收)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{BDB2D4D6-4147-4B01-989B-036CBD1C4E8B}" name="贷方(支)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3CDA95A5-2AD7-4924-8416-52603DB1618A}" name="BKG(CTN)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4F83CA88-21A0-46EA-85B9-1FBEC95B1F92}" name="THC(CTN)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C9F7C4B1-4B79-4833-A3C8-3239519938C4}" name="DOC(BL)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4DB1A085-A827-4E33-A8AC-76804C2E30CA}" name="LSS(CTN)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{866E9090-FC2D-4403-9131-0A9C6FF9DB62}" name="MFF(BL)" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{606F8EED-FBB9-472E-9955-C9AEBD7FA87E}" name="OSF(BL)" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{66E23A14-4831-49C7-A0F8-629E1A3052D5}" name="HDC(BILL)" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3235F29D-9E23-4C4A-AE7F-ED0E02F0408B}" name="结算方式" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{F190C844-170C-4A1F-B9BD-58D0C0CE4E5F}" name="开票" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{5A945112-5F14-41C3-9DE6-7BED351F4092}" name="项目" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{C141BEBA-C970-48C1-94D8-B413103D61C8}" name="借方(收)" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{BDB2D4D6-4147-4B01-989B-036CBD1C4E8B}" name="贷方(支)" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{3CDA95A5-2AD7-4924-8416-52603DB1618A}" name="BKG(CTN)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{4F83CA88-21A0-46EA-85B9-1FBEC95B1F92}" name="THC(CTN)" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{C9F7C4B1-4B79-4833-A3C8-3239519938C4}" name="DOC(BL)" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{4DB1A085-A827-4E33-A8AC-76804C2E30CA}" name="LSS(CTN)" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{866E9090-FC2D-4403-9131-0A9C6FF9DB62}" name="MFF(BL)" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{606F8EED-FBB9-472E-9955-C9AEBD7FA87E}" name="OSF(BL)" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{66E23A14-4831-49C7-A0F8-629E1A3052D5}" name="HDC(BILL)" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{3235F29D-9E23-4C4A-AE7F-ED0E02F0408B}" name="结算方式" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{F190C844-170C-4A1F-B9BD-58D0C0CE4E5F}" name="开票" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7561,7 +7998,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>448</v>
@@ -7624,9 +8061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB549AE-7F1C-4627-B536-77B8D1131A88}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7694,7 +8131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43723</v>
       </c>
@@ -7740,7 +8177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43726</v>
       </c>
@@ -7782,7 +8219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43726</v>
       </c>
@@ -7824,7 +8261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43726</v>
       </c>
@@ -7866,7 +8303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43726</v>
       </c>
@@ -7908,7 +8345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43726</v>
       </c>
@@ -7950,7 +8387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43726</v>
       </c>
@@ -7996,7 +8433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43727</v>
       </c>
@@ -8038,7 +8475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43730</v>
       </c>
@@ -8084,7 +8521,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43730</v>
       </c>
@@ -8130,7 +8567,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43730</v>
       </c>
@@ -8172,7 +8609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43730</v>
       </c>
@@ -8214,7 +8651,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43730</v>
       </c>
@@ -8256,7 +8693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43730</v>
       </c>
@@ -8296,7 +8733,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43733</v>
       </c>
@@ -8336,7 +8773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43733</v>
       </c>
@@ -8376,7 +8813,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43733</v>
       </c>
@@ -8416,7 +8853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43733</v>
       </c>
@@ -8458,7 +8895,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43733</v>
       </c>
@@ -8500,7 +8937,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43733</v>
       </c>
@@ -8542,7 +8979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43737</v>
       </c>
@@ -8582,7 +9019,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43737</v>
       </c>
@@ -8622,7 +9059,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43737</v>
       </c>
@@ -8662,7 +9099,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43737</v>
       </c>
@@ -8702,7 +9139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43737</v>
       </c>
@@ -8742,7 +9179,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43737</v>
       </c>
@@ -8782,7 +9219,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43740</v>
       </c>
@@ -8824,7 +9261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43740</v>
       </c>
@@ -8864,7 +9301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43744</v>
       </c>
@@ -8904,7 +9341,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43744</v>
       </c>
@@ -8944,7 +9381,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43744</v>
       </c>
@@ -8984,7 +9421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43744</v>
       </c>
@@ -9024,7 +9461,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43744</v>
       </c>
@@ -9064,7 +9501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43744</v>
       </c>
@@ -9104,7 +9541,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43744</v>
       </c>
@@ -9140,13 +9577,13 @@
         <v>256</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43744</v>
       </c>
@@ -9186,7 +9623,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43747</v>
       </c>
@@ -9222,13 +9659,13 @@
         <v>50</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43747</v>
       </c>
@@ -9268,7 +9705,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43747</v>
       </c>
@@ -9304,13 +9741,13 @@
         <v>191</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43747</v>
       </c>
@@ -9350,7 +9787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43747</v>
       </c>
@@ -9392,7 +9829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43747</v>
       </c>
@@ -9434,7 +9871,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43747</v>
       </c>
@@ -9548,13 +9985,13 @@
         <v>8</v>
       </c>
       <c r="J46" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>495</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>179</v>
@@ -9636,7 +10073,7 @@
         <v>295</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M48" s="10" t="s">
         <v>179</v>
@@ -9768,7 +10205,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43754</v>
       </c>
@@ -9808,7 +10245,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43754</v>
       </c>
@@ -9844,13 +10281,13 @@
         <v>365</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M53" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43754</v>
       </c>
@@ -9890,7 +10327,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43754</v>
       </c>
@@ -9930,7 +10367,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43754</v>
       </c>
@@ -9970,7 +10407,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43758</v>
       </c>
@@ -10010,7 +10447,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43758</v>
       </c>
@@ -10050,7 +10487,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43758</v>
       </c>
@@ -10083,16 +10520,16 @@
         <v>313</v>
       </c>
       <c r="K59" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>502</v>
       </c>
       <c r="M59" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43758</v>
       </c>
@@ -10128,13 +10565,13 @@
         <v>366</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43761</v>
       </c>
@@ -10153,7 +10590,7 @@
         <v>KUKA</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10">
@@ -10164,15 +10601,15 @@
         <v>2</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43758</v>
       </c>
@@ -10212,7 +10649,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43758</v>
       </c>
@@ -10252,7 +10689,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43758</v>
       </c>
@@ -10292,7 +10729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43758</v>
       </c>
@@ -10332,7 +10769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43761</v>
       </c>
@@ -10351,7 +10788,7 @@
         <v>HTL</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10">
@@ -10372,7 +10809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43761</v>
       </c>
@@ -10391,7 +10828,7 @@
         <v>HTL</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10">
@@ -10402,17 +10839,17 @@
         <v>4</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43765</v>
       </c>
@@ -10420,7 +10857,7 @@
         <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D68" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -10431,7 +10868,7 @@
         <v>KUKA</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10">
@@ -10442,15 +10879,15 @@
         <v>4</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43761</v>
       </c>
@@ -10480,17 +10917,17 @@
         <v>4</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43765</v>
       </c>
@@ -10509,7 +10946,7 @@
         <v>HTL</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10">
@@ -10520,17 +10957,17 @@
         <v>4</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43768</v>
       </c>
@@ -10549,7 +10986,7 @@
         <v>HTL</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10">
@@ -10560,17 +10997,17 @@
         <v>6</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43768</v>
       </c>
@@ -10589,7 +11026,7 @@
         <v>KUKA</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10">
@@ -10601,12 +11038,12 @@
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43772</v>
       </c>
@@ -10614,7 +11051,7 @@
         <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D73" s="2" t="str">
         <f>Table135[[#This Row],[CN]]&amp;" - "&amp;Table135[[#This Row],[CNEE]]</f>
@@ -10625,7 +11062,7 @@
         <v>KUKA</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10">
@@ -10638,11 +11075,11 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43765</v>
       </c>
@@ -10661,7 +11098,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10">
@@ -10673,12 +11110,12 @@
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43765</v>
       </c>
@@ -10697,7 +11134,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10">
@@ -10709,12 +11146,12 @@
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43768</v>
       </c>
@@ -10733,7 +11170,7 @@
         <v>WANSHENG</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10">
@@ -10745,12 +11182,12 @@
       </c>
       <c r="J76" s="10"/>
       <c r="K76" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43758</v>
       </c>
@@ -10789,7 +11226,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K2:K77">
-    <cfRule type="duplicateValues" dxfId="83" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="34"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M77" xr:uid="{A79C949C-5D3E-4F28-9A58-4BF936B5CF66}">
@@ -10810,8 +11247,8 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11354,7 +11791,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15">
@@ -11402,7 +11839,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15">
@@ -11450,7 +11887,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15">
@@ -11511,11 +11948,11 @@
   </sheetPr>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11546,7 +11983,7 @@
         <v>212</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>262</v>
@@ -12629,7 +13066,7 @@
         <v>180</v>
       </c>
       <c r="Z14" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -12861,10 +13298,10 @@
       </c>
       <c r="Y17" s="22"/>
       <c r="Z17" s="38" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>43747</v>
       </c>
@@ -12940,7 +13377,7 @@
       </c>
       <c r="Z18" s="23"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>43747</v>
       </c>
@@ -13018,7 +13455,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>43747</v>
       </c>
@@ -13096,7 +13533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>43747</v>
       </c>
@@ -13176,7 +13613,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>43747</v>
       </c>
@@ -13252,7 +13689,7 @@
       </c>
       <c r="Z22" s="23"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>43751</v>
       </c>
@@ -13322,7 +13759,7 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="23"/>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>43751</v>
       </c>
@@ -13384,8 +13821,12 @@
       <c r="U24" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
+      <c r="V24" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="W24" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="X24" s="22" t="s">
         <v>210</v>
       </c>
@@ -13394,7 +13835,7 @@
       </c>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>43751</v>
       </c>
@@ -13464,7 +13905,7 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="23"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>43751</v>
       </c>
@@ -13490,7 +13931,9 @@
       <c r="I26" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="K26" s="22" t="s">
         <v>180</v>
       </c>
@@ -13522,8 +13965,12 @@
       <c r="U26" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
+      <c r="V26" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
       <c r="Z26" s="23"/>
@@ -14006,7 +14453,7 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>43751</v>
       </c>
@@ -14068,7 +14515,9 @@
       <c r="U37" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="V37" s="24"/>
+      <c r="V37" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
@@ -14082,7 +14531,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>180</v>
@@ -14127,7 +14576,7 @@
         <v>43761</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="22" t="s">
@@ -14173,7 +14622,7 @@
         <v>43761</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="22" t="s">
@@ -14265,7 +14714,7 @@
         <v>43765</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="22" t="s">
@@ -14357,7 +14806,7 @@
         <v>43765</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22" t="s">
@@ -14391,7 +14840,7 @@
         <v>43768</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="22" t="s">
@@ -14425,11 +14874,11 @@
         <v>43758</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -14457,10 +14906,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:Z46">
-    <cfRule type="cellIs" dxfId="48" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="29" stopIfTrue="1" operator="equal">
       <formula>"╳"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="30" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14506,7 +14955,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>60</v>
@@ -14520,13 +14969,13 @@
         <v>396</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>74</v>
@@ -14540,10 +14989,10 @@
         <v>397</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>73</v>
@@ -14561,7 +15010,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -14573,10 +15022,10 @@
         <v>128</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -14588,10 +15037,10 @@
         <v>398</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>309</v>
@@ -14605,10 +15054,10 @@
         <v>399</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -14620,7 +15069,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
@@ -14644,10 +15093,10 @@
         <v>402</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>461</v>
@@ -14661,7 +15110,7 @@
         <v>403</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="9" t="s">
@@ -14698,10 +15147,10 @@
         <v>405</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -14713,7 +15162,7 @@
         <v>406</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="9" t="s">
@@ -14737,7 +15186,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
@@ -14770,8 +15219,8 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14782,7 +15231,7 @@
     <col min="4" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
@@ -14827,7 +15276,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>227</v>
       </c>
@@ -14857,7 +15306,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>227</v>
       </c>
@@ -14887,7 +15336,7 @@
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>228</v>
       </c>
@@ -14915,7 +15364,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>228</v>
       </c>
@@ -14943,7 +15392,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>208</v>
       </c>
@@ -14966,7 +15415,7 @@
         <v>238</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>410</v>
@@ -14981,7 +15430,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>208</v>
       </c>
@@ -15004,7 +15453,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>410</v>
@@ -15019,7 +15468,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>266</v>
       </c>
@@ -15042,7 +15491,7 @@
         <v>270</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32">
@@ -15055,7 +15504,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>208</v>
       </c>
@@ -15078,7 +15527,7 @@
         <v>239</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>361</v>
@@ -15093,7 +15542,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>208</v>
       </c>
@@ -15116,7 +15565,7 @@
         <v>238</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>361</v>
@@ -15129,7 +15578,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>208</v>
       </c>
@@ -15152,7 +15601,7 @@
         <v>270</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>361</v>
@@ -15167,7 +15616,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
@@ -15190,7 +15639,7 @@
         <v>464</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>361</v>
@@ -15205,7 +15654,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
@@ -15220,7 +15669,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
@@ -15229,7 +15678,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>15</v>
       </c>
@@ -15252,10 +15701,10 @@
         <v>308</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
@@ -15265,7 +15714,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>15</v>
       </c>
@@ -15282,7 +15731,7 @@
         <v>340</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -15291,7 +15740,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>15</v>
       </c>
@@ -15306,7 +15755,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -15315,7 +15764,7 @@
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -15338,7 +15787,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>361</v>
@@ -15374,7 +15823,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>361</v>
@@ -15387,7 +15836,7 @@
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>229</v>
       </c>
@@ -15410,10 +15859,10 @@
         <v>67</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J19" s="32">
         <v>200</v>
@@ -15422,14 +15871,15 @@
         <v>395</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>